--- a/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E887E989-3344-47BE-AA14-8BC750457F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F666A4F-5057-431F-878F-D5782266E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADC3C726-526A-4B6D-9113-BDBB0FFA87E3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82C55BB4-E690-4258-9ED8-79D4576DC0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="140">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,89%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,49%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,51%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,343 +122,337 @@
     <t>2,0%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
     <t>99,08%</t>
   </si>
   <si>
     <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9D7553-4513-4D69-8562-2E2F7AE3AB72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB91E32-8A38-4F09-88EE-5DB8A448F8B2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1492,13 +1486,13 @@
         <v>3240</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1513,10 +1507,10 @@
         <v>320389</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1531,7 +1525,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1543,13 +1537,13 @@
         <v>747556</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,7 +1599,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1617,13 +1611,13 @@
         <v>762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1632,13 +1626,13 @@
         <v>1756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1647,13 +1641,13 @@
         <v>2518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1668,10 +1662,10 @@
         <v>195986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1683,13 +1677,13 @@
         <v>230147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -1698,13 +1692,13 @@
         <v>426133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,7 +1754,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1778,7 +1772,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1793,7 +1787,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1802,13 +1796,13 @@
         <v>2015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,7 +1820,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1841,7 +1835,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1853,10 +1847,10 @@
         <v>550830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1915,7 +1909,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1927,13 +1921,13 @@
         <v>8738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -1942,13 +1936,13 @@
         <v>8174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -1957,13 +1951,13 @@
         <v>16912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1972,13 @@
         <v>611080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
@@ -1993,13 +1987,13 @@
         <v>788868</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1525</v>
@@ -2008,13 +2002,13 @@
         <v>1399948</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2064,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2082,13 +2076,13 @@
         <v>13854</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2100,10 +2094,10 @@
         <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2112,13 +2106,13 @@
         <v>21992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,13 +2127,13 @@
         <v>843493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
@@ -2151,10 +2145,10 @@
         <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
@@ -2163,13 +2157,13 @@
         <v>1703789</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,10 +2234,10 @@
         <v>44</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2252,13 +2246,13 @@
         <v>26722</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
@@ -2267,13 +2261,13 @@
         <v>66103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,16 +2279,16 @@
         <v>3336</v>
       </c>
       <c r="D29" s="7">
-        <v>3335829</v>
+        <v>3335828</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>5323</v>
@@ -2303,13 +2297,13 @@
         <v>3774089</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M29" s="7">
         <v>8659</v>
@@ -2318,13 +2312,13 @@
         <v>7109919</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2330,7 @@
         <v>3366</v>
       </c>
       <c r="D30" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F666A4F-5057-431F-878F-D5782266E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B20167-69EE-407E-80E2-740B5C273AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{82C55BB4-E690-4258-9ED8-79D4576DC0FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1465204-21C5-4EFA-86A3-1B6C1B273F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB91E32-8A38-4F09-88EE-5DB8A448F8B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44D4FD7-4B70-444A-9FB7-84E0F0219274}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B20167-69EE-407E-80E2-740B5C273AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8AEEA4-141B-4E24-A7E9-5069F779BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D1465204-21C5-4EFA-86A3-1B6C1B273F9C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED0EACED-E786-4B0F-8AA5-9495CBF136FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="142">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -83,13 +83,13 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,89%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,13 +107,13 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>Cadiz</t>
@@ -122,232 +122,244 @@
     <t>2,0%</t>
   </si>
   <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>99,24%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>99,8%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>98,65%</t>
   </si>
   <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,63%</t>
   </si>
   <si>
     <t>2,02%</t>
@@ -356,19 +368,13 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>98,81%</t>
@@ -377,7 +383,7 @@
     <t>97,98%</t>
   </si>
   <si>
-    <t>99,32%</t>
+    <t>99,37%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -386,73 +392,73 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>1,05%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>98,95%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
     <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -867,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44D4FD7-4B70-444A-9FB7-84E0F0219274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044ACF49-21CE-48A4-BD0E-A72C71046FDC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,13 +1492,13 @@
         <v>3240</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,10 +1513,10 @@
         <v>320389</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1525,7 +1531,7 @@
         <v>55</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1537,13 +1543,13 @@
         <v>747556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,7 +1605,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1611,13 +1617,13 @@
         <v>762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1626,13 +1632,13 @@
         <v>1756</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1641,13 +1647,13 @@
         <v>2518</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,10 +1668,10 @@
         <v>195986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1677,13 +1683,13 @@
         <v>230147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
@@ -1692,13 +1698,13 @@
         <v>426133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,7 +1760,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1772,7 +1778,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1787,7 +1793,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -1796,13 +1802,13 @@
         <v>2015</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1826,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1835,7 +1841,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1847,10 +1853,10 @@
         <v>550830</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1909,7 +1915,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1921,13 +1927,13 @@
         <v>8738</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -1936,13 +1942,13 @@
         <v>8174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -1951,13 +1957,13 @@
         <v>16912</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1978,13 @@
         <v>611080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
@@ -1987,13 +1993,13 @@
         <v>788868</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="M23" s="7">
         <v>1525</v>
@@ -2002,13 +2008,13 @@
         <v>1399948</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2070,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2076,13 +2082,13 @@
         <v>13854</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2094,10 +2100,10 @@
         <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2106,13 +2112,13 @@
         <v>21992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2133,13 @@
         <v>843493</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
@@ -2145,10 +2151,10 @@
         <v>59</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
@@ -2157,13 +2163,13 @@
         <v>1703789</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,10 +2240,10 @@
         <v>44</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2246,13 +2252,13 @@
         <v>26722</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
@@ -2261,13 +2267,13 @@
         <v>66103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,16 +2285,16 @@
         <v>3336</v>
       </c>
       <c r="D29" s="7">
-        <v>3335828</v>
+        <v>3335829</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>5323</v>
@@ -2297,13 +2303,13 @@
         <v>3774089</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="M29" s="7">
         <v>8659</v>
@@ -2312,13 +2318,13 @@
         <v>7109919</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,7 +2336,7 @@
         <v>3366</v>
       </c>
       <c r="D30" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2374,7 +2380,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D8AEEA4-141B-4E24-A7E9-5069F779BC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2201C90F-A9B6-4B4E-AE5F-DFCEE02D354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED0EACED-E786-4B0F-8AA5-9495CBF136FF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{141B2C0C-95FC-4DEB-958D-9AE21BF5A714}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="148">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -80,385 +80,403 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,16%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
   </si>
   <si>
     <t>99,11%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>99,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -873,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044ACF49-21CE-48A4-BD0E-A72C71046FDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBFCB01E-3DCC-46E5-9192-AC90AB9B0265}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1009,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1024,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1045,7 +1063,7 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1060,7 +1078,7 @@
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270980</v>
+        <v>289193</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1075,7 +1093,7 @@
         <v>868</v>
       </c>
       <c r="N5" s="7">
-        <v>531277</v>
+        <v>600635</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
@@ -1096,7 +1114,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>21</v>
@@ -1111,7 +1129,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>21</v>
@@ -1126,7 +1144,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>21</v>
@@ -1149,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>10392</v>
+        <v>10951</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
@@ -1164,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>2089</v>
+        <v>1897</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>30</v>
@@ -1179,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>12481</v>
+        <v>12848</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1200,7 +1218,7 @@
         <v>376</v>
       </c>
       <c r="D8" s="7">
-        <v>508905</v>
+        <v>507439</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
@@ -1215,7 +1233,7 @@
         <v>715</v>
       </c>
       <c r="I8" s="7">
-        <v>552477</v>
+        <v>513072</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>38</v>
@@ -1230,7 +1248,7 @@
         <v>1091</v>
       </c>
       <c r="N8" s="7">
-        <v>1061383</v>
+        <v>1020511</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1251,7 +1269,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>21</v>
@@ -1266,7 +1284,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>21</v>
@@ -1281,7 +1299,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>21</v>
@@ -1304,46 +1322,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3785</v>
+        <v>3917</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>2738</v>
+        <v>2565</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>6523</v>
+        <v>6483</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,46 +1373,46 @@
         <v>357</v>
       </c>
       <c r="D11" s="7">
-        <v>318455</v>
+        <v>312133</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>532</v>
       </c>
       <c r="I11" s="7">
-        <v>370546</v>
+        <v>346563</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>889</v>
       </c>
       <c r="N11" s="7">
-        <v>689001</v>
+        <v>658695</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1406,7 +1424,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>21</v>
@@ -1421,7 +1439,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>21</v>
@@ -1436,7 +1454,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>21</v>
@@ -1450,7 +1468,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1459,46 +1477,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1851</v>
+        <v>1630</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1389</v>
+        <v>1297</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>3240</v>
+        <v>2927</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1528,13 @@
         <v>290</v>
       </c>
       <c r="D14" s="7">
-        <v>320389</v>
+        <v>310927</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1525,13 +1543,13 @@
         <v>597</v>
       </c>
       <c r="I14" s="7">
-        <v>427167</v>
+        <v>474421</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1540,16 +1558,16 @@
         <v>887</v>
       </c>
       <c r="N14" s="7">
-        <v>747556</v>
+        <v>785347</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,7 +1579,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
@@ -1576,7 +1594,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>21</v>
@@ -1591,7 +1609,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>
@@ -1605,7 +1623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,46 +1632,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>762</v>
+        <v>694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>1756</v>
+        <v>1603</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>2518</v>
+        <v>2296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1683,13 @@
         <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>195986</v>
+        <v>178048</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1680,31 +1698,31 @@
         <v>488</v>
       </c>
       <c r="I17" s="7">
-        <v>230147</v>
+        <v>207053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>766</v>
       </c>
       <c r="N17" s="7">
-        <v>426133</v>
+        <v>385102</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,7 +1734,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>21</v>
@@ -1731,7 +1749,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>21</v>
@@ -1746,7 +1764,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>21</v>
@@ -1760,7 +1778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1778,37 +1796,37 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>2015</v>
+        <v>1798</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>2015</v>
+        <v>1798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1838,13 @@
         <v>371</v>
       </c>
       <c r="D20" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>21</v>
@@ -1835,13 +1853,13 @@
         <v>458</v>
       </c>
       <c r="I20" s="7">
-        <v>273607</v>
+        <v>255258</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -1850,13 +1868,13 @@
         <v>829</v>
       </c>
       <c r="N20" s="7">
-        <v>550830</v>
+        <v>524894</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1871,7 +1889,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>21</v>
@@ -1886,7 +1904,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1901,7 +1919,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
@@ -1915,7 +1933,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1924,46 +1942,46 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>8738</v>
+        <v>8444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>8174</v>
+        <v>7487</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>16912</v>
+        <v>15931</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,46 +1993,46 @@
         <v>583</v>
       </c>
       <c r="D23" s="7">
-        <v>611080</v>
+        <v>608131</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="H23" s="7">
         <v>942</v>
       </c>
       <c r="I23" s="7">
-        <v>788868</v>
+        <v>835130</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1525</v>
       </c>
       <c r="N23" s="7">
-        <v>1399948</v>
+        <v>1443261</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2044,7 @@
         <v>591</v>
       </c>
       <c r="D24" s="7">
-        <v>619818</v>
+        <v>616575</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>21</v>
@@ -2041,7 +2059,7 @@
         <v>950</v>
       </c>
       <c r="I24" s="7">
-        <v>797042</v>
+        <v>842617</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>21</v>
@@ -2056,7 +2074,7 @@
         <v>1541</v>
       </c>
       <c r="N24" s="7">
-        <v>1416860</v>
+        <v>1459192</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>21</v>
@@ -2070,7 +2088,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2079,46 +2097,46 @@
         <v>10</v>
       </c>
       <c r="D25" s="7">
-        <v>13854</v>
+        <v>11774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>8139</v>
+        <v>6653</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>21992</v>
+        <v>18427</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,37 +2148,37 @@
         <v>750</v>
       </c>
       <c r="D26" s="7">
-        <v>843493</v>
+        <v>915132</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>125</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
       </c>
       <c r="I26" s="7">
-        <v>860295</v>
+        <v>711078</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1804</v>
       </c>
       <c r="N26" s="7">
-        <v>1703789</v>
+        <v>1626211</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>128</v>
@@ -2181,7 +2199,7 @@
         <v>760</v>
       </c>
       <c r="D27" s="7">
-        <v>857347</v>
+        <v>926906</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>21</v>
@@ -2196,7 +2214,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>21</v>
@@ -2211,7 +2229,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1725781</v>
+        <v>1644638</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>21</v>
@@ -2234,13 +2252,13 @@
         <v>30</v>
       </c>
       <c r="D28" s="7">
-        <v>39382</v>
+        <v>37411</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>31</v>
@@ -2249,31 +2267,31 @@
         <v>31</v>
       </c>
       <c r="I28" s="7">
-        <v>26722</v>
+        <v>23740</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>61</v>
       </c>
       <c r="N28" s="7">
-        <v>66103</v>
+        <v>61151</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,46 +2303,46 @@
         <v>3336</v>
       </c>
       <c r="D29" s="7">
-        <v>3335829</v>
+        <v>3412888</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>5323</v>
       </c>
       <c r="I29" s="7">
-        <v>3774089</v>
+        <v>3631770</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="M29" s="7">
         <v>8659</v>
       </c>
       <c r="N29" s="7">
-        <v>7109919</v>
+        <v>7044657</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,7 +2354,7 @@
         <v>3366</v>
       </c>
       <c r="D30" s="7">
-        <v>3375211</v>
+        <v>3450299</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>21</v>
@@ -2351,7 +2369,7 @@
         <v>5354</v>
       </c>
       <c r="I30" s="7">
-        <v>3800811</v>
+        <v>3655510</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>21</v>
@@ -2366,7 +2384,7 @@
         <v>8720</v>
       </c>
       <c r="N30" s="7">
-        <v>7176022</v>
+        <v>7105808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>21</v>
@@ -2380,7 +2398,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
